--- a/biology/Médecine/Institut_Philippe-Pinel/Institut_Philippe-Pinel.xlsx
+++ b/biology/Médecine/Institut_Philippe-Pinel/Institut_Philippe-Pinel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Institut Philippe-Pinel est un hôpital psychiatrique universitaire à haute sécurité situé à Montréal au Québec (Canada). 
@@ -514,10 +526,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'institut a été fondé en 1970 alors que la psychiatrie légale était une science naissante et que le gouvernement cherchait de nouvelles méthodes pour gérer les cas psychiatriques difficiles à traiter.
-En mars 2009, un recours collectif à son encontre a été résolu hors cour au montant d'un million CAD[1].
+En mars 2009, un recours collectif à son encontre a été résolu hors cour au montant d'un million CAD.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet institut est le seul hôpital au Canada spécialisé dans la réhabilitation des patients qui ont des problèmes à la fois psychiatriques et juridiques. Il est affilié à l'Université de Montréal et à quelques collèges d'enseignement général et professionnel.
 Pinel offre des services de clinique externe ainsi qu'un programme pour les délinquants sexuels. Les hommes et les femmes sont admis, mais les hommes sont beaucoup plus nombreux. La dangerosité des patients est déterminée par des consultations avec les cliniciens. Trois mille livres sont conservés par son service de documentation.
@@ -578,7 +594,9 @@
           <t>Les quatre parties de la mission de Pinel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Évaluation des patients
 Éducation des résidents médicaux et des étudiants
